--- a/Results/CrossTable_maporigstrata_ceov4_NEW.xlsx
+++ b/Results/CrossTable_maporigstrata_ceov4_NEW.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0c35774a9514c4a/Documents/Philippines/PhilippinesQAQCanalysis/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:40009_{E53F50F6-27F5-4722-B42B-929C5FDD6FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6466B25E-242E-4903-8AE3-5E9D5B4115AE}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:40009_{E53F50F6-27F5-4722-B42B-929C5FDD6FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061B959C-BCC1-4623-BBA4-ABF275953630}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="440" windowWidth="16830" windowHeight="9610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1850" yWindow="895" windowWidth="16860" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NEW_CrossTable_maporig_ceov4" sheetId="2" r:id="rId1"/>
-    <sheet name="CrossTable_maporigstrata_ceov4" sheetId="1" r:id="rId2"/>
+    <sheet name="Simple_mapV3_ceov4" sheetId="3" r:id="rId1"/>
+    <sheet name="NEW_CrossTable_maporig_ceov4" sheetId="2" r:id="rId2"/>
+    <sheet name="CrossTable_maporigstrata_ceov4" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="25">
   <si>
     <t>Deforestation</t>
   </si>
@@ -85,12 +86,6 @@
   </si>
   <si>
     <t>weight</t>
-  </si>
-  <si>
-    <t>% area omitted by map</t>
-  </si>
-  <si>
-    <t>% are extra from map</t>
   </si>
   <si>
     <r>
@@ -164,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +315,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -715,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -744,6 +745,11 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1100,11 +1106,851 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3CEF95-F6A6-4275-A279-B694EAE111F9}">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.31640625" defaultRowHeight="14.9" customHeight="1" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="31.40625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="19.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:H2)</f>
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <v>34453723</v>
+      </c>
+      <c r="M2">
+        <f>L2/SUM(L$2:L$6)</f>
+        <v>0.10427767381739499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="0">SUM(B3:H3)</f>
+        <v>126</v>
+      </c>
+      <c r="L3">
+        <v>26644240</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="1">L3/SUM(L$2:L$6)</f>
+        <v>8.0641484458222071E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <v>231075619</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.69937370847367175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>176</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="L5">
+        <v>14083476</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4.2625063089498649E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>337</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="L6">
+        <v>24146582</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>7.3082070161212515E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:H8" si="2">SUM(B2:B6)</f>
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>466</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>16600300</v>
+      </c>
+      <c r="O9">
+        <f>N9+N10</f>
+        <v>34453723</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>17853423</v>
+      </c>
+      <c r="O10">
+        <f>N11+N12</f>
+        <v>26644240</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>4822662</v>
+      </c>
+      <c r="O11">
+        <f>N13+N14</f>
+        <v>231075619</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>21821578</v>
+      </c>
+      <c r="O12">
+        <f>N15</f>
+        <v>14083476</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>82877320</v>
+      </c>
+      <c r="O13">
+        <f>N16</f>
+        <v>24146582</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>148198299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>14083476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14" t="e">
+        <f>$M2*K1:KB2/$J2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" s="14">
+        <f>$M2*C2/$J2</f>
+        <v>6.0828643060147078E-3</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" ref="D16:H16" si="3">$M2*D2/$J2</f>
+        <v>1.7379612302899164E-3</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="3"/>
+        <v>4.3449030757247908E-3</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2165728612029416E-2</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="3"/>
+        <v>3.3890243990653365E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="3"/>
+        <v>3.6497185836088249E-2</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f>SUM(B16:H16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16">
+        <v>0.10427767381739499</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>24146582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14">
+        <f>$M3*B3/$J3</f>
+        <v>3.8400706884867655E-3</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" ref="B17:H20" si="4">$M3*C3/$J3</f>
+        <v>3.2000589070723044E-3</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="4"/>
+        <v>5.1200942513156874E-3</v>
+      </c>
+      <c r="E17" s="14">
+        <f>$M3*E3/$J3</f>
+        <v>5.1200942513156874E-3</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2800235628289218E-2</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="4"/>
+        <v>2.94405419450652E-2</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="4"/>
+        <v>2.1120388786677206E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" ref="J17:J20" si="5">SUM(B17:H17)</f>
+        <v>8.0641484458222071E-2</v>
+      </c>
+      <c r="L17">
+        <v>8.0641484458222071E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1656228474561195E-2</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1656228474561195E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.14570285593201496</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.12239039898289256</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.2156402267793821</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.19232776983025973</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.69937370847367175</v>
+      </c>
+      <c r="L18">
+        <v>0.69937370847367175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3144292582664781E-3</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="4"/>
+        <v>1.8777560832378259E-3</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="4"/>
+        <v>3.7555121664756519E-4</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="4"/>
+        <v>3.3048507064985737E-2</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3144292582664781E-3</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="4"/>
+        <v>4.6943902080945647E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2625063089498642E-2</v>
+      </c>
+      <c r="L19">
+        <v>4.2625063089498649E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="14">
+        <f t="shared" si="4"/>
+        <v>3.5912565189785017E-4</v>
+      </c>
+      <c r="C20" s="14">
+        <f>$M6*C6/$J6</f>
+        <v>5.3868847784677534E-4</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="4"/>
+        <v>8.9781412974462545E-4</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="4"/>
+        <v>2.1547539113871013E-3</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="4"/>
+        <v>6.051267234478775E-2</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="4"/>
+        <v>8.6190156455484054E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>7.3082070161212501E-2</v>
+      </c>
+      <c r="L20">
+        <v>7.3082070161212515E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="e">
+        <f t="shared" ref="B22:H22" si="6">SUM(B16:B20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="6"/>
+        <v>2.3355596248732808E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>1.8514283956166798E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>0.15644121860544763</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>0.18255962419958405</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>0.34079811431815488</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>0.26325875030666818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="15" t="e">
+        <f>($L16*B16-B16^2)/($J2-1) + ($L17*B17-B17^2)/($J3-1) +  ($L18*B18-B18^2)/($J4-1) +  ($L19*B19-B19^2)/($J5-1) + ($L20*B20-B20^2)/($J6-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" ref="C27:H27" si="7">($L16*C16-C16^2)/($J2-1) + ($L17*C17-C17^2)/($J3-1) +  ($L18*C18-C18^2)/($J4-1) +  ($L19*C19-C19^2)/($J5-1) + ($L20*C20-C20^2)/($J6-1)</f>
+        <v>7.4799678485868644E-5</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="7"/>
+        <v>7.1953935085626233E-5</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="7"/>
+        <v>6.8488310046334875E-4</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="7"/>
+        <v>6.1156278186465685E-4</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="7"/>
+        <v>9.1079329646508124E-4</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="7"/>
+        <v>8.52488972582392E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" ref="B28:H28" si="8">($L17*B17-B17^2)/($J3-1) + ($L18*B18-B18^2)/($J4-1) +  ($L19*B19-B19^2)/($J5-1) +  ($L20*B20-B20^2)/($J6-1) + ($L21*B21-B21^2)/($J7-1)</f>
+        <v>2.6639747180152616E-6</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="8"/>
+        <v>6.9780302840383873E-5</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="8"/>
+        <v>7.0456371681916491E-5</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="8"/>
+        <v>6.8123437606871693E-4</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="8"/>
+        <v>6.0214590012268537E-4</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="8"/>
+        <v>8.9074752192135629E-4</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="8"/>
+        <v>8.3170076194445501E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="15" t="e">
+        <f t="shared" ref="B29:H29" si="9">($L18*B18-B18^2)/($J4-1) + ($L19*B19-B19^2)/($J5-1) +  ($L20*B20-B20^2)/($J6-1) +  ($L21*B21-B21^2)/($J7-1) + ($L22*B22-B22^2)/($J8-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="9"/>
+        <v>6.1328164198531519E-4</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1014166900469381E-4</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5151995841739373E-2</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3923215216253313E-2</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11702204317676604</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="9"/>
+        <v>7.0126813505520372E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15" t="e">
+        <f t="shared" ref="B30:H30" si="10">($L19*B19-B19^2)/($J5-1) + ($L20*B20-B20^2)/($J6-1) +  ($L21*B21-B21^2)/($J7-1) +  ($L22*B22-B22^2)/($J8-1) + ($L23*B23-B23^2)/($J9-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="10"/>
+        <v>5.459186833901967E-4</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="10"/>
+        <v>3.4277871040957531E-4</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="10"/>
+        <v>2.4474084711809681E-2</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="10"/>
+        <v>3.3329793220832758E-2</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="10"/>
+        <v>0.1161454684062338</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="10"/>
+        <v>6.9307325988034837E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="e">
+        <f>B16/J16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31">
+        <f>D17/J17</f>
+        <v>6.3492063492063502E-2</v>
+      </c>
+      <c r="E31">
+        <f>E18/J18</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F31">
+        <f>F19/J19</f>
+        <v>0.77533039647577107</v>
+      </c>
+      <c r="G31">
+        <f>G20/J20</f>
+        <v>0.82800982800982803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="e">
+        <f>B16/B22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33">
+        <f>D17/D22</f>
+        <v>0.27654832687225095</v>
+      </c>
+      <c r="E33">
+        <f>E18/E22</f>
+        <v>0.93135848231587004</v>
+      </c>
+      <c r="F33">
+        <f>F19/F22</f>
+        <v>0.18102856647456353</v>
+      </c>
+      <c r="G33">
+        <f>G20/G22</f>
+        <v>0.17756164075572217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="e">
+        <f>B16+D17+E18+G20+F19</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BB85FB-D42A-4D55-BB4E-CE166297A40B}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.31640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1535,9 +2381,6 @@
       <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
       <c r="L15" t="s">
         <v>14</v>
       </c>
@@ -1581,10 +2424,7 @@
         <f>SUM(B16:H16)</f>
         <v>5.0242485222015118E-2</v>
       </c>
-      <c r="K16" s="3">
-        <f>SUM(C16:H16)</f>
-        <v>4.5218236699813605E-2</v>
-      </c>
+      <c r="K16" s="3"/>
       <c r="L16">
         <v>16600300</v>
       </c>
@@ -1628,10 +2468,7 @@
         <f t="shared" ref="J17:J23" si="5">SUM(B17:H17)</f>
         <v>5.4035188595379882E-2</v>
       </c>
-      <c r="K17" s="3">
-        <f>SUM(C17:H17)</f>
-        <v>4.9532256212431569E-2</v>
-      </c>
+      <c r="K17" s="3"/>
       <c r="L17">
         <v>17853423</v>
       </c>
@@ -1675,10 +2512,7 @@
         <f t="shared" si="5"/>
         <v>1.4596273818290866E-2</v>
       </c>
-      <c r="K18" s="3">
-        <f>SUM(B18:C18)+SUM(E18:H18)</f>
-        <v>1.3711651162636873E-2</v>
-      </c>
+      <c r="K18" s="3"/>
       <c r="L18">
         <v>4822662</v>
       </c>
@@ -1722,10 +2556,7 @@
         <f t="shared" si="5"/>
         <v>6.6045210639931212E-2</v>
       </c>
-      <c r="K19" s="3">
-        <f>SUM(B19:C19)+SUM(E19:H19)</f>
-        <v>6.1642196597269126E-2</v>
-      </c>
+      <c r="K19" s="3"/>
       <c r="L19">
         <v>21821578</v>
       </c>
@@ -1769,10 +2600,7 @@
         <f t="shared" si="5"/>
         <v>0.25083658279309512</v>
       </c>
-      <c r="K20" s="3">
-        <f>SUM(B20:D20)+SUM(F20:H20)</f>
-        <v>0.18812743709482138</v>
-      </c>
+      <c r="K20" s="3"/>
       <c r="L20">
         <v>82877320</v>
       </c>
@@ -1816,10 +2644,7 @@
         <f t="shared" si="5"/>
         <v>0.44853712568057669</v>
       </c>
-      <c r="K21" s="3">
-        <f>SUM(B21:D21)+SUM(F21:H21)</f>
-        <v>0.37378093806714724</v>
-      </c>
+      <c r="K21" s="3"/>
       <c r="L21">
         <v>148198299</v>
       </c>
@@ -1863,10 +2688,7 @@
         <f t="shared" si="5"/>
         <v>4.2625063089498642E-2</v>
       </c>
-      <c r="K22" s="3">
-        <f>SUM(B22:E22)+SUM(G22:H22)</f>
-        <v>9.5765560245129125E-3</v>
-      </c>
+      <c r="K22" s="3"/>
       <c r="L22">
         <v>14083476</v>
       </c>
@@ -1910,10 +2732,7 @@
         <f t="shared" si="5"/>
         <v>7.3082070161212501E-2</v>
       </c>
-      <c r="K23" s="3">
-        <f>SUM(B23:F23)+H23</f>
-        <v>1.2569397816424757E-2</v>
-      </c>
+      <c r="K23" s="3"/>
       <c r="L23">
         <v>24146582</v>
       </c>
@@ -1957,247 +2776,221 @@
         <v>0.25831470351342406</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.75">
+      <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3">
-        <f>SUM(B18:B23)</f>
-        <v>4.7596845871493605E-3</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <f>SUM(D20:D23)+D17+D16</f>
-        <v>1.33309779819617E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <f>SUM(E16:E19)+E22+E23</f>
-        <v>1.1880320551519195E-2</v>
-      </c>
-      <c r="F26" s="3">
-        <f>SUM(F16:F21)+F23</f>
-        <v>0.1217622257270454</v>
-      </c>
-      <c r="G26" s="3">
-        <f>SUM(G16:G22)</f>
-        <v>0.31701045664868305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.75">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="11">
+        <f>($M16*B16-B16^2)/($J2-1) + ($M17*B17-B17^2)/($J3-1) +  ($M18*B18-B18^2)/($J4-1) +  ($M19*B19-B19^2)/($J5-1) + ($M20*B20-B20^2)/($J6-1) + ($M21*B21-B21^2)/($J7-1) + ($M22*B22-B22^2)/($J8-1) + ($M23*B23-B23^2)/($J9-1)</f>
+        <v>1.050442913723061E-5</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:H26" si="8">($M16*C16-C16^2)/($J2-1) + ($M17*C17-C17^2)/($J3-1) +  ($M18*C18-C18^2)/($J4-1) +  ($M19*C19-C19^2)/($J5-1) + ($M20*C20-C20^2)/($J6-1) + ($M21*C21-C21^2)/($J7-1) + ($M22*C22-C22^2)/($J8-1) + ($M23*C23-C23^2)/($J9-1)</f>
+        <v>1.1878113378774984E-4</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="8"/>
+        <v>7.9527801017881527E-5</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="8"/>
+        <v>6.8335513188028368E-4</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="8"/>
+        <v>4.0446811760393197E-4</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="8"/>
+        <v>1.0152501172777685E-3</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="8"/>
+        <v>9.0099869305096804E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <f>SQRT(B26)</f>
+        <v>3.2410537078596227E-3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:H27" si="9">SQRT(C26)</f>
+        <v>1.0898675781385087E-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>8.91783611746042E-3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>2.614106217964916E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>2.0111392731582068E-2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>3.1862989773054386E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>3.0016640269206814E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="11">
-        <f>($M16*B16-B16^2)/($L16-1) + ($M17*B17-B17^2)/($L17-1) +  ($M18*B18-B18^2)/($L18-1) +  ($M19*B19-B19^2)/($L19-1) + ($M20*B20-B20^2)/($L20-1) + ($M21*B21-B21^2)/($L21-1) + ($M22*B22-B22^2)/($L22-1) + ($M23*B23-B23^2)/($L23-1)</f>
-        <v>4.00719020099499E-11</v>
-      </c>
-      <c r="C27" s="11">
-        <f t="shared" ref="C27:H27" si="8">($M16*C16-C16^2)/($L16-1) + ($M17*C17-C17^2)/($L17-1) +  ($M18*C18-C18^2)/($L18-1) +  ($M19*C19-C19^2)/($L19-1) + ($M20*C20-C20^2)/($L20-1) + ($M21*C21-C21^2)/($L21-1) + ($M22*C22-C22^2)/($L22-1) + ($M23*C23-C23^2)/($L23-1)</f>
-        <v>7.847302782349976E-11</v>
-      </c>
-      <c r="D27" s="11">
-        <f t="shared" si="8"/>
-        <v>5.4543503260718333E-11</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" si="8"/>
-        <v>3.6455938706565521E-10</v>
-      </c>
-      <c r="F27" s="11">
-        <f t="shared" si="8"/>
-        <v>3.1067087992095371E-10</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" si="8"/>
-        <v>5.876451969280989E-10</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="8"/>
-        <v>5.6732706658614974E-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A28" s="6" t="s">
+      <c r="B28">
+        <f>B27*1.96</f>
+        <v>6.3524652674048603E-3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:H28" si="10">C27*1.96</f>
+        <v>2.136140453151477E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>1.7478958790222422E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="10"/>
+        <v>5.1236481872112355E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>3.9418329753900853E-2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="10"/>
+        <v>6.2451459955186597E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="10"/>
+        <v>5.8832614927645355E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B28">
-        <f>SQRT(B27)</f>
-        <v>6.3302371211471926E-6</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:H28" si="9">SQRT(C27)</f>
-        <v>8.8585003145848433E-6</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="9"/>
-        <v>7.3853573549773699E-6</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="9"/>
-        <v>1.9093438324871067E-5</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="9"/>
-        <v>1.7625858274732431E-5</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="9"/>
-        <v>2.424139428597495E-5</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="9"/>
-        <v>2.3818628562244085E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A29" s="7" t="s">
+      <c r="B29">
+        <f t="shared" ref="B29:H29" si="11">B28/B25</f>
+        <v>0.44463673790650027</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="11"/>
+        <v>0.7882349644513913</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="11"/>
+        <v>0.93878943682837146</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="11"/>
+        <v>0.34307313635679726</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="11"/>
+        <v>0.25462271925845381</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="11"/>
+        <v>0.16542419565574931</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>0.22775557925059403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
-        <f>B28*1.96</f>
-        <v>1.2407264757448497E-5</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:H29" si="10">C28*1.96</f>
-        <v>1.7362660616586293E-5</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="10"/>
-        <v>1.4475300415755644E-5</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="10"/>
-        <v>3.7423139116747294E-5</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="10"/>
-        <v>3.4546682218475564E-5</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="10"/>
-        <v>4.7513132800510901E-5</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="10"/>
-        <v>4.6684511981998405E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A30" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="B30">
-        <f>B29/B25</f>
-        <v>8.6843855036895063E-4</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ref="C30:H30" si="11">C29/C25</f>
-        <v>6.4068147549500029E-4</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="11"/>
-        <v>7.7746388033310355E-4</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="11"/>
-        <v>2.5058070421668321E-4</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="11"/>
-        <v>2.2315430975244276E-4</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="11"/>
-        <v>1.258548924596687E-4</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="11"/>
-        <v>1.8072727315567738E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
         <f>B16/J16</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="D31">
+      <c r="D30">
         <f>D18/J18</f>
         <v>6.0606060606060601E-2</v>
       </c>
-      <c r="E31">
+      <c r="E30">
         <f>E20/J20</f>
         <v>0.25</v>
       </c>
-      <c r="F31">
+      <c r="F30">
         <f>F22/J22</f>
         <v>0.77533039647577107</v>
       </c>
-      <c r="G31">
+      <c r="G30">
         <f>G23/J23</f>
         <v>0.82800982800982803</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="B32">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="B31">
         <f>B17/J17</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D32">
+      <c r="D31">
         <f>D19/J19</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E32">
+      <c r="E31">
         <f>E21/J21</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
         <f>B16/B25</f>
         <v>0.35166905749267718</v>
       </c>
-      <c r="D33">
+      <c r="D32">
         <f>D18/D25</f>
         <v>4.7512807523271326E-2</v>
       </c>
-      <c r="E33">
+      <c r="E32">
         <f>E20/E25</f>
         <v>0.41989267230839994</v>
       </c>
-      <c r="F33">
+      <c r="F32">
         <f>F22/F25</f>
         <v>0.2134768466562475</v>
       </c>
-      <c r="G33">
+      <c r="G32">
         <f>G23/G25</f>
         <v>0.16028864908521753</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="B34">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B33">
         <f>B17/B25</f>
         <v>0.31517986820660293</v>
       </c>
-      <c r="D34">
+      <c r="D33">
         <f>D19/D25</f>
         <v>0.23648451392713346</v>
       </c>
-      <c r="E34">
+      <c r="E33">
         <f>E21/E25</f>
         <v>0.50055817280022474</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
         <f>B16+B17+D18+D19+E20+E21+F22+G23</f>
         <v>0.24584133032494263</v>
       </c>
@@ -2208,12 +3001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A13" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.31640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2645,12 +3438,9 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2690,18 +3480,14 @@
         <f>SUM(B16:H16)</f>
         <v>5.0242485222015118E-2</v>
       </c>
-      <c r="K16" s="3">
-        <f>SUM(C16:H16)</f>
-        <v>4.7730360960914361E-2</v>
+      <c r="K16">
+        <v>16600300</v>
       </c>
       <c r="L16">
-        <v>16600300</v>
-      </c>
-      <c r="M16">
         <v>5.0242485222015097E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2737,18 +3523,14 @@
         <f t="shared" ref="J17:J23" si="5">SUM(B17:H17)</f>
         <v>5.4035188595379882E-2</v>
       </c>
-      <c r="K17" s="3">
-        <f>SUM(C17:H17)</f>
-        <v>5.2234015642200551E-2</v>
+      <c r="K17">
+        <v>17853423</v>
       </c>
       <c r="L17">
-        <v>17853423</v>
-      </c>
-      <c r="M17">
         <v>5.4035188595379882E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2784,18 +3566,14 @@
         <f t="shared" si="5"/>
         <v>1.4596273818290866E-2</v>
       </c>
-      <c r="K18" s="3">
-        <f>SUM(B18:C18)+SUM(E18:H18)</f>
-        <v>1.3932806826550369E-2</v>
+      <c r="K18">
+        <v>4822662</v>
       </c>
       <c r="L18">
-        <v>4822662</v>
-      </c>
-      <c r="M18">
         <v>1.4596273818290864E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2831,18 +3609,14 @@
         <f t="shared" si="5"/>
         <v>6.6045210639931212E-2</v>
       </c>
-      <c r="K19" s="3">
-        <f>SUM(B19:C19)+SUM(E19:H19)</f>
-        <v>6.3843703618600173E-2</v>
+      <c r="K19">
+        <v>21821578</v>
       </c>
       <c r="L19">
-        <v>21821578</v>
-      </c>
-      <c r="M19">
         <v>6.6045210639931212E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2878,18 +3652,14 @@
         <f t="shared" si="5"/>
         <v>0.25083658279309512</v>
       </c>
-      <c r="K20" s="3">
-        <f>SUM(B20:D20)+SUM(F20:H20)</f>
-        <v>0.22157231480056738</v>
+      <c r="K20">
+        <v>82877320</v>
       </c>
       <c r="L20">
-        <v>82877320</v>
-      </c>
-      <c r="M20">
         <v>0.25083658279309512</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2925,18 +3695,14 @@
         <f t="shared" si="5"/>
         <v>0.44853712568057663</v>
       </c>
-      <c r="K21" s="3">
-        <f>SUM(B21:D21)+SUM(F21:H21)</f>
-        <v>0.40368341311251899</v>
+      <c r="K21">
+        <v>148198299</v>
       </c>
       <c r="L21">
-        <v>148198299</v>
-      </c>
-      <c r="M21">
         <v>0.44853712568057663</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2972,18 +3738,14 @@
         <f t="shared" si="5"/>
         <v>4.2625063089498649E-2</v>
       </c>
-      <c r="K22" s="3">
-        <f>SUM(B22:E22)+SUM(G22:H22)</f>
-        <v>9.7643316328366939E-3</v>
+      <c r="K22">
+        <v>14083476</v>
       </c>
       <c r="L22">
-        <v>14083476</v>
-      </c>
-      <c r="M22">
         <v>4.2625063089498649E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3019,21 +3781,17 @@
         <f t="shared" si="5"/>
         <v>7.3082070161212515E-2</v>
       </c>
-      <c r="K23" s="3">
-        <f>SUM(B23:F23)+H23</f>
-        <v>1.2928523468322607E-2</v>
+      <c r="K23">
+        <v>24146582</v>
       </c>
       <c r="L23">
-        <v>24146582</v>
-      </c>
-      <c r="M23">
         <v>7.3082070161212515E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -3066,167 +3824,149 @@
         <v>0.25284556468121649</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.75">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="3">
-        <f>SUM(B18:B23)</f>
-        <v>1.8404777695152568E-2</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <f>SUM(D20:D23)+D17+D16</f>
-        <v>5.8553592206187551E-3</v>
-      </c>
-      <c r="E26" s="3">
-        <f>SUM(E16:E19)+E22+E23</f>
-        <v>8.2428723355823848E-3</v>
-      </c>
-      <c r="F26" s="3">
-        <f>SUM(F16:F21)+F23</f>
-        <v>0.19200893909695424</v>
-      </c>
-      <c r="G26" s="3">
-        <f>SUM(G16:G22)</f>
-        <v>0.31478796099751438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.75">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="B27" s="11">
-        <f>($M16*B16-B16^2)/($L16-1) + ($M17*B17-B17^2)/($L17-1) +  ($M18*B18-B18^2)/($L18-1) +  ($M19*B19-B19^2)/($L19-1) + ($M20*B20-B20^2)/($L20-1) + ($M21*B21-B21^2)/($L21-1) + ($M22*B22-B22^2)/($L22-1) + ($M23*B23-B23^2)/($L23-1)</f>
-        <v>6.4979197273924375E-11</v>
+        <f>($L16*B16-B16^2)/($J2-1) + ($L17*B17-B17^2)/($J3-1) +  ($L18*B18-B18^2)/($J4-1) +  ($L19*B19-B19^2)/($J5-1) + ($L20*B20-B20^2)/($J6-1) + ($L21*B21-B21^2)/($J7-1) + ($L22*B22-B22^2)/($J8-1) + ($L23*B23-B23^2)/($J9-1)</f>
+        <v>4.5283685594712045E-5</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" ref="C27:H27" si="13">($M16*C16-C16^2)/($L16-1) + ($M17*C17-C17^2)/($L17-1) +  ($M18*C18-C18^2)/($L18-1) +  ($M19*C19-C19^2)/($L19-1) + ($M20*C20-C20^2)/($L20-1) + ($M21*C21-C21^2)/($L21-1) + ($M22*C22-C22^2)/($L22-1) + ($M23*C23-C23^2)/($L23-1)</f>
-        <v>9.7655109242975377E-11</v>
+        <f t="shared" ref="C27:H27" si="13">($L16*C16-C16^2)/($J2-1) + ($L17*C17-C17^2)/($J3-1) +  ($L18*C18-C18^2)/($J4-1) +  ($L19*C19-C19^2)/($J5-1) + ($L20*C20-C20^2)/($J6-1) + ($L21*C21-C21^2)/($J7-1) + ($L22*C22-C22^2)/($J8-1) + ($L23*C23-C23^2)/($J9-1)</f>
+        <v>1.5172206467844451E-4</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="13"/>
-        <v>2.5699749069395936E-11</v>
+        <v>2.1380579308172351E-5</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="13"/>
-        <v>2.243629302928661E-10</v>
+        <v>4.2344038404093124E-4</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="13"/>
-        <v>4.4686079203461134E-10</v>
+        <v>6.7173765606124455E-4</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="13"/>
-        <v>5.8680723900280541E-10</v>
+        <v>1.0148292182787506E-3</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="13"/>
-        <v>5.5999907776411547E-10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+        <v>8.9296964198714202E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A28" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <f>SQRT(B27)</f>
-        <v>8.0609675147543168E-6</v>
+        <v>6.7293153882629136E-3</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:H28" si="14">SQRT(C27)</f>
-        <v>9.8820599696103539E-6</v>
+        <v>1.2317551082842909E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="14"/>
-        <v>5.0694919932273229E-6</v>
+        <v>4.6239138517247865E-3</v>
       </c>
       <c r="E28">
         <f t="shared" si="14"/>
-        <v>1.4978749290006363E-5</v>
+        <v>2.0577667118527581E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="14"/>
-        <v>2.1139082100096289E-5</v>
+        <v>2.5917902231107449E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="14"/>
-        <v>2.4224104503630376E-5</v>
+        <v>3.1856384262479484E-2</v>
       </c>
       <c r="H28">
         <f t="shared" si="14"/>
-        <v>2.36642996466009E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+        <v>2.9882597644568017E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A29" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <f>B28*1.96</f>
-        <v>1.5799496328918461E-5</v>
+        <v>1.318945816099531E-2</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:H29" si="15">C28*1.96</f>
-        <v>1.9368837540436292E-5</v>
+        <v>2.41424001223721E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="15"/>
-        <v>9.9362043067255523E-6</v>
+        <v>9.0628711493805809E-3</v>
       </c>
       <c r="E29">
         <f t="shared" si="15"/>
-        <v>2.9358348608412471E-5</v>
+        <v>4.0332227552314061E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="15"/>
-        <v>4.1432600916188722E-5</v>
+        <v>5.0799088372970598E-2</v>
       </c>
       <c r="G29">
         <f t="shared" si="15"/>
-        <v>4.7479244827115535E-5</v>
+        <v>6.2438513154459786E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="15"/>
-        <v>4.6382027307337765E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+        <v>5.8569891383353313E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A30" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <f>B29/B25</f>
-        <v>6.9545929361991988E-4</v>
+        <v>0.58057111852901688</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:H30" si="16">C29/C25</f>
-        <v>5.7741592623472831E-4</v>
+        <v>0.71972343714928466</v>
       </c>
       <c r="D30">
         <f t="shared" si="16"/>
-        <v>1.1394294278041859E-3</v>
+        <v>1.0392803699710609</v>
       </c>
       <c r="E30">
         <f t="shared" si="16"/>
-        <v>3.5645998767672415E-4</v>
+        <v>0.48970143137250932</v>
       </c>
       <c r="F30">
         <f t="shared" si="16"/>
-        <v>1.84251619234306E-4</v>
+        <v>0.22590457951891049</v>
       </c>
       <c r="G30">
         <f t="shared" si="16"/>
-        <v>1.2663107138919378E-4</v>
+        <v>0.16652867680367986</v>
       </c>
       <c r="H30">
         <f t="shared" si="16"/>
-        <v>1.8344014602674744E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+        <v>0.23164294559486248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A31" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <f>B16/J16</f>
@@ -3249,7 +3989,7 @@
         <v>0.82309582309582308</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B32">
         <f>B17/J17</f>
         <v>3.3333333333333333E-2</v>
@@ -3265,7 +4005,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <f>B16/B25</f>
@@ -3304,7 +4044,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A35" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1">
         <f>B16+B17+D18+D19+E20+E21+F22+G23</f>
